--- a/resultats/mlp_gridsearch.xlsx
+++ b/resultats/mlp_gridsearch.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>Test</t>
   </si>
@@ -272,19 +272,73 @@
     <t>[64, 128, 64, 128]   128   1.6620 0.4115</t>
   </si>
   <si>
-    <t>Result best params</t>
-  </si>
-  <si>
-    <t>[64, 128, 64, 128]   32    1.6723 0.4040</t>
+    <t>____________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer (type)                     Output Shape          Param #     Connected to                     </t>
+  </si>
+  <si>
+    <t>====================================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_1 (Dense)                  (None, 128)           100480      dense_input_1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_1 (Activation)        (None, 128)           0           dense_1[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_2 (Dense)                  (None, 128)           16512       activation_1[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_2 (Activation)        (None, 128)           0           dense_2[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropout_1 (Dropout)              (None, 128)           0           activation_2[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_3 (Dense)                  (None, 128)           16512       dropout_1[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_3 (Activation)        (None, 128)           0           dense_3[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_4 (Dense)                  (None, 128)           16512       activation_3[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_4 (Activation)        (None, 128)           0           dense_4[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropout_2 (Dropout)              (None, 128)           0           activation_4[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_5 (Dense)                  (None, 128)           16512       dropout_2[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_5 (Activation)        (None, 128)           0           dense_5[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropout_3 (Dropout)              (None, 128)           0           activation_5[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_6 (Dense)                  (None, 10)            1290        dropout_3[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_6 (Activation)        (None, 10)            0           dense_6[0][0]                    </t>
+  </si>
+  <si>
+    <t>Total params: 167818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dense_1 (Dense)                  (None, 128)           393344      dense_input_1[0][0]              </t>
+  </si>
+  <si>
+    <t>Total params: 460682</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -511,16 +565,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,52 +576,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,9 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,17 +601,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,10 +646,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -995,17 +1050,20 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
+      <c r="P1" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="J2" t="s">
         <v>47</v>
       </c>
@@ -1015,25 +1073,27 @@
       <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
+      <c r="P2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="15.5">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="J3" t="s">
         <v>22</v>
       </c>
@@ -1043,31 +1103,33 @@
       <c r="N3">
         <v>0.96719999999999995</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
+      <c r="P3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" ht="15.5">
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>64</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>128</v>
       </c>
       <c r="J4" t="s">
@@ -1079,37 +1141,39 @@
       <c r="N4">
         <v>0.96789999999999998</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
+      <c r="P4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="14.5" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>0.96719999999999995</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="11">
         <v>0.96789999999999998</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>0.97099999999999997</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>0.96779999999999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>0.96760000000000002</v>
       </c>
       <c r="J5" t="s">
@@ -1121,35 +1185,37 @@
       <c r="N5">
         <v>0.97099999999999997</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
+      <c r="P5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="14.5" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>0.97540000000000004</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <v>0.97419999999999995</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>0.97660000000000002</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>0.97719999999999996</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>0.97489999999999999</v>
       </c>
       <c r="J6" t="s">
@@ -1161,35 +1227,37 @@
       <c r="N6">
         <v>0.96779999999999999</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
+      <c r="P6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="14.5" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>0.96870000000000001</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>0.97070000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>0.97130000000000005</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>0.97150000000000003</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>0.9708</v>
       </c>
       <c r="J7" t="s">
@@ -1201,35 +1269,37 @@
       <c r="N7">
         <v>0.96760000000000002</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
+      <c r="P7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="14.5" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>0.97219999999999995</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>0.97189999999999999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>0.97260000000000002</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>0.97119999999999995</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>0.97</v>
       </c>
       <c r="J8" t="s">
@@ -1241,24 +1311,26 @@
       <c r="N8">
         <v>0.97540000000000004</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
+      <c r="P8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="15.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="J9" t="s">
         <v>28</v>
       </c>
@@ -1268,16 +1340,18 @@
       <c r="N9">
         <v>0.97419999999999995</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
+      <c r="P9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="14.5" customHeight="1">
       <c r="J10" t="s">
@@ -1289,27 +1363,29 @@
       <c r="N10">
         <v>0.97660000000000002</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
+      <c r="P10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="J11" t="s">
         <v>30</v>
       </c>
@@ -1319,25 +1395,27 @@
       <c r="N11">
         <v>0.97719999999999996</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="P11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="15.5">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="J12" t="s">
         <v>31</v>
       </c>
@@ -1347,21 +1425,24 @@
       <c r="N12">
         <v>0.97489999999999999</v>
       </c>
+      <c r="P12" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="15.5">
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>32</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>64</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>128</v>
       </c>
       <c r="J13" t="s">
@@ -1373,27 +1454,30 @@
       <c r="N13">
         <v>0.96870000000000001</v>
       </c>
+      <c r="P13" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="27">
         <v>0.1832</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="27">
         <v>0.1424</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="27">
         <v>0.1241</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="27">
         <v>0.12570000000000001</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="27">
         <v>0.1205</v>
       </c>
       <c r="J14" t="s">
@@ -1405,25 +1489,28 @@
       <c r="N14">
         <v>0.97070000000000001</v>
       </c>
+      <c r="P14" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="27">
         <v>0.15840000000000001</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="27">
         <v>0.1409</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="27">
         <v>0.1079</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="27">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="27">
         <v>9.98E-2</v>
       </c>
       <c r="J15" t="s">
@@ -1435,25 +1522,28 @@
       <c r="N15">
         <v>0.97130000000000005</v>
       </c>
+      <c r="P15" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="27">
         <v>0.17269999999999999</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="27">
         <v>0.12590000000000001</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="27">
         <v>0.1183</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="27">
         <v>0.1086</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="27">
         <v>0.1032</v>
       </c>
       <c r="J16" t="s">
@@ -1465,25 +1555,28 @@
       <c r="N16">
         <v>0.97150000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="14"/>
+      <c r="P16" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="38"/>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="27">
         <v>0.17150000000000001</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="27">
         <v>0.1227</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="27">
         <v>0.10730000000000001</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="27">
         <v>0.1016</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="27">
         <v>0.105</v>
       </c>
       <c r="J17" t="s">
@@ -1495,9 +1588,12 @@
       <c r="N17">
         <v>0.9708</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="B18" s="10"/>
+      <c r="P17" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="8"/>
       <c r="J18" t="s">
         <v>37</v>
       </c>
@@ -1507,17 +1603,20 @@
       <c r="N18">
         <v>0.97219999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="18.5">
-      <c r="B19" s="3" t="s">
+      <c r="P18" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.5">
+      <c r="B19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="I19" s="26"/>
       <c r="J19" t="s">
         <v>38</v>
       </c>
@@ -1527,19 +1626,25 @@
       <c r="N19">
         <v>0.97189999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.5">
-      <c r="B20" s="23" t="s">
+      <c r="P19" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.5">
+      <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
@@ -1551,21 +1656,28 @@
       <c r="N20">
         <v>0.97260000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="22" t="s">
+      <c r="P20" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="52">
         <v>64</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="52">
+      <c r="D21" s="53"/>
+      <c r="E21" s="31">
         <f>MAX(gridsearch_2)</f>
         <v>0.97719999999999996</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="29">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.97489999999999999</v>
+      </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
@@ -1575,11 +1687,14 @@
       <c r="N21">
         <v>0.97119999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="P21" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="J22" t="s">
         <v>41</v>
       </c>
@@ -1589,516 +1704,663 @@
       <c r="N22">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.5">
-      <c r="A25" s="36" t="s">
+      <c r="P22" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="C23" s="14"/>
+      <c r="P23" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="C24" s="14"/>
+      <c r="P24" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.5">
+      <c r="A25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38">
-        <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="37" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21">
+        <f>G21</f>
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="42">
+      <c r="H25" s="20"/>
+      <c r="I25" s="25">
         <f>E21</f>
         <v>0.97719999999999996</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.5" customHeight="1">
-      <c r="A26" s="39" t="s">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="P25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="30" t="str">
+      <c r="B26" s="14" t="str">
         <f>_xlfn.CONCAT(B20,"=",B21)</f>
         <v>Filter config=[128, 128, 128, 128]</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="str">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="str">
         <f>_xlfn.CONCAT(C20,"=",C21)</f>
         <v>Batch size=64</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.5">
-      <c r="A28" s="48" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.5" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.5">
+      <c r="A28" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.5">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="40">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="P28" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.5">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="23">
         <v>0</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="23">
         <v>2</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="23">
         <v>3</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="23">
         <v>4</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="23">
         <v>5</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="23">
         <v>6</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="23">
         <v>7</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="23">
         <v>8</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.5">
-      <c r="A30" s="28" t="s">
+      <c r="P29" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.5">
+      <c r="A30" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="23">
         <v>0</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="24">
+        <v>967</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.5">
+      <c r="A31" s="48"/>
+      <c r="B31" s="23">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1120</v>
+      </c>
+      <c r="E31" s="15">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>2</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>4</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.5">
+      <c r="A32" s="48"/>
+      <c r="B32" s="23">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15">
+        <v>5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="24">
+        <v>1004</v>
+      </c>
+      <c r="F32" s="15">
+        <v>6</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>2</v>
+      </c>
+      <c r="J32" s="15">
+        <v>5</v>
+      </c>
+      <c r="K32" s="15">
+        <v>7</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="23">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>4</v>
+      </c>
+      <c r="F33" s="24">
+        <v>981</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>8</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>4</v>
+      </c>
+      <c r="K33" s="15">
+        <v>12</v>
+      </c>
+      <c r="L33" s="15">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.5">
+      <c r="A34" s="48"/>
+      <c r="B34" s="23">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <v>959</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2</v>
+      </c>
+      <c r="I34" s="15">
+        <v>6</v>
+      </c>
+      <c r="J34" s="15">
+        <v>2</v>
+      </c>
+      <c r="K34" s="15">
+        <v>3</v>
+      </c>
+      <c r="L34" s="15">
+        <v>7</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.5">
+      <c r="A35" s="48"/>
+      <c r="B35" s="23">
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
+        <v>3</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>10</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24">
+        <v>862</v>
+      </c>
+      <c r="I35" s="15">
+        <v>6</v>
+      </c>
+      <c r="J35" s="15">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15">
+        <v>5</v>
+      </c>
+      <c r="L35" s="15">
+        <v>3</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.5">
+      <c r="A36" s="48"/>
+      <c r="B36" s="23">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15">
+        <v>5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>2</v>
+      </c>
+      <c r="H36" s="15">
+        <v>5</v>
+      </c>
+      <c r="I36" s="24">
+        <v>939</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>4</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.5">
+      <c r="A37" s="48"/>
+      <c r="B37" s="23">
+        <v>7</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15">
+        <v>10</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="15">
+        <v>6</v>
+      </c>
+      <c r="L37" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.5">
+      <c r="A38" s="48"/>
+      <c r="B38" s="23">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15">
+        <v>4</v>
+      </c>
+      <c r="G38" s="15">
+        <v>2</v>
+      </c>
+      <c r="H38" s="15">
+        <v>4</v>
+      </c>
+      <c r="I38" s="15">
+        <v>4</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2</v>
+      </c>
+      <c r="K38" s="24">
+        <v>954</v>
+      </c>
+      <c r="L38" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.5">
+      <c r="A39" s="49"/>
+      <c r="B39" s="23">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15">
+        <v>2</v>
+      </c>
+      <c r="D39" s="15">
+        <v>4</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15">
+        <v>8</v>
+      </c>
+      <c r="H39" s="15">
+        <v>9</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>5</v>
+      </c>
+      <c r="K39" s="15">
+        <v>12</v>
+      </c>
+      <c r="L39" s="24">
         <v>963</v>
       </c>
-      <c r="D30" s="31">
-        <v>1</v>
-      </c>
-      <c r="E30" s="31">
-        <v>4</v>
-      </c>
-      <c r="F30" s="31">
-        <v>2</v>
-      </c>
-      <c r="G30" s="31">
-        <v>1</v>
-      </c>
-      <c r="H30" s="31">
-        <v>2</v>
-      </c>
-      <c r="I30" s="31">
-        <v>1</v>
-      </c>
-      <c r="J30" s="31">
-        <v>2</v>
-      </c>
-      <c r="K30" s="31">
-        <v>2</v>
-      </c>
-      <c r="L30" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="40">
-        <v>1</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41">
-        <v>1124</v>
-      </c>
-      <c r="E31" s="31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="31">
-        <v>3</v>
-      </c>
-      <c r="L31" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.5">
-      <c r="A32" s="29"/>
-      <c r="B32" s="40">
-        <v>2</v>
-      </c>
-      <c r="C32" s="31">
-        <v>2</v>
-      </c>
-      <c r="D32" s="31">
-        <v>0</v>
-      </c>
-      <c r="E32" s="41">
-        <v>1011</v>
-      </c>
-      <c r="F32" s="31">
-        <v>4</v>
-      </c>
-      <c r="G32" s="31">
-        <v>2</v>
-      </c>
-      <c r="H32" s="31">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31">
-        <v>2</v>
-      </c>
-      <c r="J32" s="31">
-        <v>6</v>
-      </c>
-      <c r="K32" s="31">
-        <v>5</v>
-      </c>
-      <c r="L32" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.5">
-      <c r="A33" s="29"/>
-      <c r="B33" s="40">
-        <v>3</v>
-      </c>
-      <c r="C33" s="31">
-        <v>0</v>
-      </c>
-      <c r="D33" s="31">
-        <v>0</v>
-      </c>
-      <c r="E33" s="31">
-        <v>3</v>
-      </c>
-      <c r="F33" s="41">
-        <v>990</v>
-      </c>
-      <c r="G33" s="31">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>4</v>
-      </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="31">
-        <v>4</v>
-      </c>
-      <c r="K33" s="31">
-        <v>8</v>
-      </c>
-      <c r="L33" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="40">
-        <v>4</v>
-      </c>
-      <c r="C34" s="31">
-        <v>3</v>
-      </c>
-      <c r="D34" s="31">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31">
-        <v>5</v>
-      </c>
-      <c r="F34" s="31">
-        <v>0</v>
-      </c>
-      <c r="G34" s="41">
-        <v>952</v>
-      </c>
-      <c r="H34" s="31">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
-        <v>4</v>
-      </c>
-      <c r="J34" s="31">
-        <v>3</v>
-      </c>
-      <c r="K34" s="31">
-        <v>2</v>
-      </c>
-      <c r="L34" s="31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="40">
-        <v>5</v>
-      </c>
-      <c r="C35" s="31">
-        <v>2</v>
-      </c>
-      <c r="D35" s="31">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31">
-        <v>0</v>
-      </c>
-      <c r="F35" s="31">
-        <v>9</v>
-      </c>
-      <c r="G35" s="31">
-        <v>2</v>
-      </c>
-      <c r="H35" s="41">
-        <v>862</v>
-      </c>
-      <c r="I35" s="31">
-        <v>4</v>
-      </c>
-      <c r="J35" s="31">
-        <v>2</v>
-      </c>
-      <c r="K35" s="31">
-        <v>7</v>
-      </c>
-      <c r="L35" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.5">
-      <c r="A36" s="29"/>
-      <c r="B36" s="40">
-        <v>6</v>
-      </c>
-      <c r="C36" s="31">
-        <v>6</v>
-      </c>
-      <c r="D36" s="31">
-        <v>2</v>
-      </c>
-      <c r="E36" s="31">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31">
-        <v>1</v>
-      </c>
-      <c r="G36" s="31">
-        <v>6</v>
-      </c>
-      <c r="H36" s="31">
-        <v>4</v>
-      </c>
-      <c r="I36" s="41">
-        <v>935</v>
-      </c>
-      <c r="J36" s="31">
-        <v>1</v>
-      </c>
-      <c r="K36" s="31">
-        <v>3</v>
-      </c>
-      <c r="L36" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.5">
-      <c r="A37" s="29"/>
-      <c r="B37" s="40">
-        <v>7</v>
-      </c>
-      <c r="C37" s="31">
-        <v>0</v>
-      </c>
-      <c r="D37" s="31">
-        <v>3</v>
-      </c>
-      <c r="E37" s="31">
-        <v>11</v>
-      </c>
-      <c r="F37" s="31">
-        <v>5</v>
-      </c>
-      <c r="G37" s="31">
-        <v>1</v>
-      </c>
-      <c r="H37" s="31">
-        <v>1</v>
-      </c>
-      <c r="I37" s="31">
-        <v>0</v>
-      </c>
-      <c r="J37" s="41">
-        <v>999</v>
-      </c>
-      <c r="K37" s="31">
-        <v>2</v>
-      </c>
-      <c r="L37" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.5">
-      <c r="A38" s="29"/>
-      <c r="B38" s="40">
-        <v>8</v>
-      </c>
-      <c r="C38" s="31">
-        <v>4</v>
-      </c>
-      <c r="D38" s="31">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31">
-        <v>1</v>
-      </c>
-      <c r="F38" s="31">
-        <v>7</v>
-      </c>
-      <c r="G38" s="31">
-        <v>4</v>
-      </c>
-      <c r="H38" s="31">
-        <v>2</v>
-      </c>
-      <c r="I38" s="31">
-        <v>2</v>
-      </c>
-      <c r="J38" s="31">
-        <v>2</v>
-      </c>
-      <c r="K38" s="41">
-        <v>949</v>
-      </c>
-      <c r="L38" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="40">
-        <v>9</v>
-      </c>
-      <c r="C39" s="31">
-        <v>2</v>
-      </c>
-      <c r="D39" s="31">
-        <v>5</v>
-      </c>
-      <c r="E39" s="31">
-        <v>1</v>
-      </c>
-      <c r="F39" s="31">
-        <v>9</v>
-      </c>
-      <c r="G39" s="31">
-        <v>8</v>
-      </c>
-      <c r="H39" s="31">
-        <v>1</v>
-      </c>
-      <c r="I39" s="31">
-        <v>1</v>
-      </c>
-      <c r="J39" s="31">
-        <v>12</v>
-      </c>
-      <c r="K39" s="31">
-        <v>7</v>
-      </c>
-      <c r="L39" s="41">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.5">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.5">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="2:7" ht="15.5">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.5">
+      <c r="B48" s="9"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.5">
+      <c r="B49" s="9"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.5">
+      <c r="B50" s="9"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A28:B29"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A2:G2"/>
@@ -2202,31 +2464,35 @@
   <cols>
     <col min="1" max="1" width="8.26953125" customWidth="1"/>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="12" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="7" width="8.90625" customWidth="1"/>
+    <col min="8" max="12" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="J2" s="30" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="J2" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M2" t="s">
@@ -2235,1137 +2501,1249 @@
       <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.5">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:16" ht="15.5">
+      <c r="C3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="J3" s="30" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="J3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="14">
         <v>1.6741999999999999</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="14">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.5">
-      <c r="C4" s="5">
+      <c r="P3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.5">
+      <c r="C4" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>64</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>128</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="14">
         <v>1.75</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="14">
         <v>0.37309999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12" t="s">
+      <c r="P4" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>0.40200000000000002</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="11">
         <v>0.37309999999999899</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>0.40439999999999898</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>0.40310000000000001</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>0.41560000000000002</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="14">
         <v>1.6644000000000001</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="14">
         <v>0.40439999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="13"/>
+      <c r="P5" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>0.36969999999999897</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <v>0.42520000000000002</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>0.44919999999999899</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>0.44290000000000002</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>0.42809999999999898</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="14">
         <v>1.6560999999999999</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="14">
         <v>0.40310000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="13"/>
+      <c r="P6" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="37"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>0.32329999999999898</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>0.38619999999999899</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>0.43430000000000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>0.40570000000000001</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>0.41489999999999899</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="14">
         <v>1.6349</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="14">
         <v>0.41560000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="14"/>
+      <c r="P7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="38"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>0.34960000000000002</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>0.37490000000000001</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>0.4405</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>0.40039999999999898</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>0.41149999999999898</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="14">
         <v>1.7563</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="14">
         <v>0.36969999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="J9" s="30" t="s">
+      <c r="P8" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="J9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="14">
         <v>1.6121000000000001</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="14">
         <v>0.42520000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="J10" s="30" t="s">
+      <c r="P9" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="J10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="14">
         <v>1.5542</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="14">
         <v>0.44919999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="16" t="s">
+      <c r="P10" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="J11" s="30" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="J11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="14">
         <v>1.534</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="14">
         <v>0.44290000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.5">
-      <c r="C12" s="4" t="s">
+      <c r="P11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.5">
+      <c r="C12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="J12" s="30" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="J12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="14">
         <v>1.5859000000000001</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="14">
         <v>0.42809999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.5">
-      <c r="C13" s="5">
+      <c r="P12" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.5">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>32</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>64</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>128</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="14">
         <v>1.8071999999999999</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="14">
         <v>0.32329999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="12" t="s">
+      <c r="P13" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="27">
         <v>1.6741999999999999</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="27">
         <v>1.75</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="27">
         <v>1.6644000000000001</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="27">
         <v>1.6560999999999999</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="27">
         <v>1.6349</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="14">
         <v>1.7056</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="14">
         <v>0.38619999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="13"/>
+      <c r="P14" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="37"/>
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="27">
         <v>1.7563</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="27">
         <v>1.6121000000000001</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="27">
         <v>1.5542</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="27">
         <v>1.534</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="27">
         <v>1.5859000000000001</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="14">
         <v>1.5847</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="14">
         <v>0.43430000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="13"/>
+      <c r="P15" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="37"/>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="27">
         <v>1.8071999999999999</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="27">
         <v>1.7056</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="27">
         <v>1.5847</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="27">
         <v>1.6511</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="27">
         <v>1.6193</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="14">
         <v>1.6511</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="14">
         <v>0.40570000000000001</v>
       </c>
+      <c r="P16" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="14"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="27">
         <v>1.7806999999999999</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="27">
         <v>1.7499</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="27">
         <v>1.5611999999999999</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="27">
         <v>1.6698</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="27">
         <v>1.6619999999999999</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="14">
         <v>1.6193</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="14">
         <v>0.41489999999999999</v>
       </c>
+      <c r="P17" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="10"/>
-      <c r="J18" s="30" t="s">
+      <c r="B18" s="8"/>
+      <c r="J18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="14">
         <v>1.7806999999999999</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="14">
         <v>0.34960000000000002</v>
       </c>
+      <c r="P18" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="18.5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="30"/>
-      <c r="J19" s="30" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="14">
         <v>1.7499</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="14">
         <v>0.37490000000000001</v>
       </c>
+      <c r="P19" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="15.5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="J20" s="30" t="s">
+      <c r="H20" s="14"/>
+      <c r="J20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="14">
         <v>1.5611999999999999</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="14">
         <v>0.4405</v>
       </c>
+      <c r="P20" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="30"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="52">
         <v>32</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="52">
+      <c r="D21" s="53"/>
+      <c r="E21" s="31">
         <f>MAX(gridsearch_2)</f>
         <v>0.44919999999999899</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="30"/>
-      <c r="J21" s="30" t="s">
+      <c r="F21" s="56">
+        <v>1.6016999999999999</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="J21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="14">
         <v>1.6698</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="14">
         <v>0.40039999999999998</v>
       </c>
+      <c r="P21" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="14">
         <v>1.6619999999999999</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="14">
         <v>0.41149999999999998</v>
       </c>
+      <c r="P22" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="P23" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="15.5">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38">
-        <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21">
+        <f>G21</f>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="42">
+      <c r="H24" s="20"/>
+      <c r="I24" s="25">
         <f>E21</f>
         <v>0.44919999999999899</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="P24" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15.5">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="14" t="str">
         <f>_xlfn.CONCAT(B20,"=",B21)</f>
         <v>Filter config=[128, 128, 128, 128]</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30" t="str">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="str">
         <f>_xlfn.CONCAT(C20,"=",C21)</f>
         <v>Batch size=32</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="15.5">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="15.5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="40" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="40" t="s">
+      <c r="L28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="15.5">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="41">
-        <v>441</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C29" s="24">
+        <v>411</v>
+      </c>
+      <c r="D29" s="15">
+        <v>23</v>
+      </c>
+      <c r="E29" s="15">
+        <v>21</v>
+      </c>
+      <c r="F29" s="15">
+        <v>47</v>
+      </c>
+      <c r="G29" s="15">
+        <v>13</v>
+      </c>
+      <c r="H29" s="15">
+        <v>3</v>
+      </c>
+      <c r="I29" s="15">
+        <v>12</v>
+      </c>
+      <c r="J29" s="15">
+        <v>115</v>
+      </c>
+      <c r="K29" s="15">
+        <v>234</v>
+      </c>
+      <c r="L29" s="15">
+        <v>121</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.5">
+      <c r="A30" s="48"/>
+      <c r="B30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="15">
+        <v>29</v>
+      </c>
+      <c r="D30" s="24">
+        <v>438</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>27</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7</v>
+      </c>
+      <c r="H30" s="15">
+        <v>10</v>
+      </c>
+      <c r="I30" s="15">
+        <v>13</v>
+      </c>
+      <c r="J30" s="15">
+        <v>38</v>
+      </c>
+      <c r="K30" s="15">
+        <v>132</v>
+      </c>
+      <c r="L30" s="15">
+        <v>306</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.5">
+      <c r="A31" s="48"/>
+      <c r="B31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="15">
+        <v>98</v>
+      </c>
+      <c r="D31" s="15">
+        <v>23</v>
+      </c>
+      <c r="E31" s="24">
+        <v>113</v>
+      </c>
+      <c r="F31" s="15">
+        <v>137</v>
+      </c>
+      <c r="G31" s="15">
+        <v>134</v>
+      </c>
+      <c r="H31" s="15">
+        <v>64</v>
+      </c>
+      <c r="I31" s="15">
+        <v>101</v>
+      </c>
+      <c r="J31" s="15">
+        <v>241</v>
+      </c>
+      <c r="K31" s="15">
+        <v>46</v>
+      </c>
+      <c r="L31" s="15">
+        <v>43</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.5">
+      <c r="A32" s="48"/>
+      <c r="B32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="15">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15">
         <v>17</v>
       </c>
-      <c r="E29" s="31">
-        <v>115</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="E32" s="15">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24">
+        <v>326</v>
+      </c>
+      <c r="G32" s="15">
+        <v>33</v>
+      </c>
+      <c r="H32" s="15">
+        <v>156</v>
+      </c>
+      <c r="I32" s="15">
+        <v>88</v>
+      </c>
+      <c r="J32" s="15">
+        <v>171</v>
+      </c>
+      <c r="K32" s="15">
+        <v>51</v>
+      </c>
+      <c r="L32" s="15">
+        <v>106</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="15">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15">
+        <v>9</v>
+      </c>
+      <c r="E33" s="15">
+        <v>48</v>
+      </c>
+      <c r="F33" s="15">
+        <v>103</v>
+      </c>
+      <c r="G33" s="24">
+        <v>270</v>
+      </c>
+      <c r="H33" s="15">
+        <v>43</v>
+      </c>
+      <c r="I33" s="15">
+        <v>110</v>
+      </c>
+      <c r="J33" s="15">
+        <v>287</v>
+      </c>
+      <c r="K33" s="15">
+        <v>42</v>
+      </c>
+      <c r="L33" s="15">
+        <v>43</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.5">
+      <c r="A34" s="48"/>
+      <c r="B34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="15">
+        <v>15</v>
+      </c>
+      <c r="D34" s="15">
+        <v>14</v>
+      </c>
+      <c r="E34" s="15">
+        <v>22</v>
+      </c>
+      <c r="F34" s="15">
+        <v>220</v>
+      </c>
+      <c r="G34" s="15">
+        <v>42</v>
+      </c>
+      <c r="H34" s="24">
+        <v>295</v>
+      </c>
+      <c r="I34" s="15">
+        <v>65</v>
+      </c>
+      <c r="J34" s="15">
+        <v>192</v>
+      </c>
+      <c r="K34" s="15">
+        <v>76</v>
+      </c>
+      <c r="L34" s="15">
+        <v>59</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.5">
+      <c r="A35" s="48"/>
+      <c r="B35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15">
+        <v>7</v>
+      </c>
+      <c r="E35" s="15">
+        <v>22</v>
+      </c>
+      <c r="F35" s="15">
+        <v>177</v>
+      </c>
+      <c r="G35" s="15">
+        <v>123</v>
+      </c>
+      <c r="H35" s="15">
+        <v>39</v>
+      </c>
+      <c r="I35" s="24">
+        <v>435</v>
+      </c>
+      <c r="J35" s="15">
+        <v>117</v>
+      </c>
+      <c r="K35" s="15">
+        <v>20</v>
+      </c>
+      <c r="L35" s="15">
+        <v>58</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.5">
+      <c r="A36" s="48"/>
+      <c r="B36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="15">
+        <v>17</v>
+      </c>
+      <c r="D36" s="15">
+        <v>14</v>
+      </c>
+      <c r="E36" s="15">
+        <v>12</v>
+      </c>
+      <c r="F36" s="15">
+        <v>46</v>
+      </c>
+      <c r="G36" s="15">
+        <v>33</v>
+      </c>
+      <c r="H36" s="15">
+        <v>49</v>
+      </c>
+      <c r="I36" s="15">
+        <v>14</v>
+      </c>
+      <c r="J36" s="24">
+        <v>668</v>
+      </c>
+      <c r="K36" s="15">
+        <v>34</v>
+      </c>
+      <c r="L36" s="15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.5">
+      <c r="A37" s="48"/>
+      <c r="B37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="15">
+        <v>64</v>
+      </c>
+      <c r="D37" s="15">
+        <v>35</v>
+      </c>
+      <c r="E37" s="15">
+        <v>2</v>
+      </c>
+      <c r="F37" s="15">
+        <v>33</v>
+      </c>
+      <c r="G37" s="15">
+        <v>5</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>31</v>
+      </c>
+      <c r="K37" s="24">
+        <v>681</v>
+      </c>
+      <c r="L37" s="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.5">
+      <c r="A38" s="49"/>
+      <c r="B38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17</v>
+      </c>
+      <c r="D38" s="15">
+        <v>110</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2</v>
+      </c>
+      <c r="F38" s="15">
         <v>30</v>
       </c>
-      <c r="G29" s="31">
-        <v>49</v>
-      </c>
-      <c r="H29" s="31">
-        <v>53</v>
-      </c>
-      <c r="I29" s="31">
-        <v>19</v>
-      </c>
-      <c r="J29" s="31">
-        <v>97</v>
-      </c>
-      <c r="K29" s="31">
-        <v>158</v>
-      </c>
-      <c r="L29" s="31">
-        <v>21</v>
-      </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.5">
-      <c r="A30" s="29"/>
-      <c r="B30" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="31">
-        <v>73</v>
-      </c>
-      <c r="D30" s="41">
-        <v>478</v>
-      </c>
-      <c r="E30" s="31">
-        <v>26</v>
-      </c>
-      <c r="F30" s="31">
-        <v>46</v>
-      </c>
-      <c r="G30" s="31">
-        <v>15</v>
-      </c>
-      <c r="H30" s="31">
-        <v>73</v>
-      </c>
-      <c r="I30" s="31">
-        <v>44</v>
-      </c>
-      <c r="J30" s="31">
-        <v>66</v>
-      </c>
-      <c r="K30" s="31">
-        <v>83</v>
-      </c>
-      <c r="L30" s="31">
-        <v>96</v>
-      </c>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="40" t="s">
+      <c r="G38" s="15">
+        <v>3</v>
+      </c>
+      <c r="H38" s="15">
+        <v>8</v>
+      </c>
+      <c r="I38" s="15">
         <v>11</v>
       </c>
-      <c r="C31" s="31">
-        <v>85</v>
-      </c>
-      <c r="D31" s="31">
-        <v>12</v>
-      </c>
-      <c r="E31" s="41">
-        <v>281</v>
-      </c>
-      <c r="F31" s="31">
-        <v>36</v>
-      </c>
-      <c r="G31" s="31">
-        <v>191</v>
-      </c>
-      <c r="H31" s="31">
-        <v>137</v>
-      </c>
-      <c r="I31" s="31">
-        <v>99</v>
-      </c>
-      <c r="J31" s="31">
-        <v>138</v>
-      </c>
-      <c r="K31" s="31">
-        <v>14</v>
-      </c>
-      <c r="L31" s="31">
-        <v>7</v>
-      </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.5">
-      <c r="A32" s="29"/>
-      <c r="B32" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="31">
-        <v>12</v>
-      </c>
-      <c r="D32" s="31">
-        <v>8</v>
-      </c>
-      <c r="E32" s="31">
-        <v>106</v>
-      </c>
-      <c r="F32" s="41">
-        <v>140</v>
-      </c>
-      <c r="G32" s="31">
-        <v>61</v>
-      </c>
-      <c r="H32" s="31">
-        <v>381</v>
-      </c>
-      <c r="I32" s="31">
-        <v>143</v>
-      </c>
-      <c r="J32" s="31">
-        <v>119</v>
-      </c>
-      <c r="K32" s="31">
-        <v>19</v>
-      </c>
-      <c r="L32" s="31">
-        <v>11</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.5">
-      <c r="A33" s="29"/>
-      <c r="B33" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="31">
-        <v>47</v>
-      </c>
-      <c r="D33" s="31">
-        <v>8</v>
-      </c>
-      <c r="E33" s="31">
-        <v>135</v>
-      </c>
-      <c r="F33" s="31">
-        <v>31</v>
-      </c>
-      <c r="G33" s="41">
-        <v>343</v>
-      </c>
-      <c r="H33" s="31">
-        <v>111</v>
-      </c>
-      <c r="I33" s="31">
-        <v>89</v>
-      </c>
-      <c r="J33" s="31">
-        <v>211</v>
-      </c>
-      <c r="K33" s="31">
-        <v>18</v>
-      </c>
-      <c r="L33" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="31">
-        <v>9</v>
-      </c>
-      <c r="D34" s="31">
-        <v>6</v>
-      </c>
-      <c r="E34" s="31">
-        <v>104</v>
-      </c>
-      <c r="F34" s="31">
-        <v>74</v>
-      </c>
-      <c r="G34" s="31">
-        <v>75</v>
-      </c>
-      <c r="H34" s="41">
-        <v>474</v>
-      </c>
-      <c r="I34" s="31">
-        <v>79</v>
-      </c>
-      <c r="J34" s="31">
-        <v>149</v>
-      </c>
-      <c r="K34" s="31">
-        <v>21</v>
-      </c>
-      <c r="L34" s="31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="31">
-        <v>3</v>
-      </c>
-      <c r="D35" s="31">
-        <v>9</v>
-      </c>
-      <c r="E35" s="31">
-        <v>94</v>
-      </c>
-      <c r="F35" s="31">
-        <v>70</v>
-      </c>
-      <c r="G35" s="31">
-        <v>197</v>
-      </c>
-      <c r="H35" s="31">
-        <v>155</v>
-      </c>
-      <c r="I35" s="41">
-        <v>396</v>
-      </c>
-      <c r="J35" s="31">
+      <c r="J38" s="15">
         <v>62</v>
       </c>
-      <c r="K35" s="31">
-        <v>6</v>
-      </c>
-      <c r="L35" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.5">
-      <c r="A36" s="29"/>
-      <c r="B36" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="31">
-        <v>31</v>
-      </c>
-      <c r="D36" s="31">
-        <v>8</v>
-      </c>
-      <c r="E36" s="31">
-        <v>57</v>
-      </c>
-      <c r="F36" s="31">
-        <v>31</v>
-      </c>
-      <c r="G36" s="31">
-        <v>80</v>
-      </c>
-      <c r="H36" s="31">
-        <v>104</v>
-      </c>
-      <c r="I36" s="31">
-        <v>29</v>
-      </c>
-      <c r="J36" s="41">
-        <v>627</v>
-      </c>
-      <c r="K36" s="31">
-        <v>14</v>
-      </c>
-      <c r="L36" s="31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.5">
-      <c r="A37" s="29"/>
-      <c r="B37" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="31">
-        <v>148</v>
-      </c>
-      <c r="D37" s="31">
-        <v>51</v>
-      </c>
-      <c r="E37" s="31">
-        <v>46</v>
-      </c>
-      <c r="F37" s="31">
-        <v>26</v>
-      </c>
-      <c r="G37" s="31">
-        <v>30</v>
-      </c>
-      <c r="H37" s="31">
-        <v>81</v>
-      </c>
-      <c r="I37" s="31">
-        <v>14</v>
-      </c>
-      <c r="J37" s="31">
-        <v>34</v>
-      </c>
-      <c r="K37" s="41">
-        <v>527</v>
-      </c>
-      <c r="L37" s="31">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.5">
-      <c r="A38" s="44"/>
-      <c r="B38" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="31">
-        <v>66</v>
-      </c>
-      <c r="D38" s="31">
-        <v>182</v>
-      </c>
-      <c r="E38" s="31">
-        <v>25</v>
-      </c>
-      <c r="F38" s="31">
-        <v>43</v>
-      </c>
-      <c r="G38" s="31">
-        <v>19</v>
-      </c>
-      <c r="H38" s="31">
-        <v>53</v>
-      </c>
-      <c r="I38" s="31">
-        <v>44</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="K38" s="15">
         <v>102</v>
       </c>
-      <c r="K38" s="31">
-        <v>133</v>
-      </c>
-      <c r="L38" s="41">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="L38" s="24">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F9">
     <cfRule type="colorScale" priority="6">
@@ -3450,5 +3828,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>